--- a/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
+++ b/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E1767D-722F-4299-9DA5-12F694BDC13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B7AC3F-989C-4AC1-AF48-99841F563B39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="456">
   <si>
     <t>PERIOD</t>
   </si>
@@ -178,9 +178,6 @@
     <t>AS OF JUNE  30, 1998</t>
   </si>
   <si>
-    <t xml:space="preserve">UT </t>
-  </si>
-  <si>
     <t>UT (0-0-53)</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>09/28,29/ 2000</t>
   </si>
   <si>
-    <t>VL(0-1-26)</t>
-  </si>
-  <si>
     <t>10/2,3/2000</t>
   </si>
   <si>
@@ -1171,9 +1165,6 @@
     <t>11/13,14/2015</t>
   </si>
   <si>
-    <t>FL(4-0-0)</t>
-  </si>
-  <si>
     <t>12/22,23,28,29/2015</t>
   </si>
   <si>
@@ -1409,6 +1400,9 @@
   </si>
   <si>
     <t>12/6,7,9/2022</t>
+  </si>
+  <si>
+    <t>UT(0-1-26)</t>
   </si>
 </sst>
 </file>
@@ -3829,6 +3823,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K531" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K531" xr:uid="{36EE1C43-D79C-4278-996D-C99D3D0DDA91}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3860,14 +3855,16 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:G3">
+  <sortState ref="D3:G3">
     <sortCondition ref="G2:G3"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
     <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
     <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+      <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4210,8 +4207,9 @@
   <dimension ref="A2:K531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A492" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K501" sqref="K501"/>
+      <pane ySplit="3576" topLeftCell="A497" activePane="bottomLeft"/>
+      <selection activeCell="K140" sqref="K140"/>
+      <selection pane="bottomLeft" activeCell="F502" sqref="F502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4255,7 +4253,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
@@ -4275,14 +4273,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
@@ -4374,7 +4372,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>79.694999999999965</v>
+        <v>57.540999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4384,7 +4382,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>192.19900000000001</v>
+        <v>176.69900000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4418,13 +4416,14 @@
       <c r="B11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42">
+        <v>66.900000000000006</v>
+      </c>
       <c r="D11" s="43"/>
       <c r="E11" s="9"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="42">
+        <v>33.698999999999998</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="9"/>
@@ -4454,26 +4453,26 @@
         <v>35977</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>31</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>36008</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -4518,7 +4517,7 @@
         <v>36039</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -4582,7 +4581,7 @@
         <v>36130</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -4600,13 +4599,13 @@
       <c r="I19" s="34"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
@@ -4622,13 +4621,13 @@
       <c r="I20" s="34"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
@@ -4644,13 +4643,13 @@
       <c r="I21" s="34"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39">
@@ -4710,7 +4709,7 @@
         <v>36192</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -4734,7 +4733,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -4758,7 +4757,7 @@
         <v>36220</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -4776,7 +4775,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -4784,7 +4783,7 @@
         <v>36251</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -4808,7 +4807,7 @@
         <v>36281</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -4826,7 +4825,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -4834,12 +4833,14 @@
         <v>36312</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="39">
+        <v>0.64200000000000002</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
@@ -4856,12 +4857,14 @@
         <v>36342</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
@@ -4878,7 +4881,7 @@
         <v>36373</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -4896,13 +4899,13 @@
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39">
@@ -4924,7 +4927,7 @@
         <v>36404</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -4968,7 +4971,7 @@
         <v>36465</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -4986,13 +4989,13 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39">
@@ -5014,7 +5017,7 @@
         <v>36495</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -5032,13 +5035,13 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -5054,13 +5057,13 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="48"/>
       <c r="B40" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39">
@@ -5079,7 +5082,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -5100,7 +5103,7 @@
         <v>36526</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -5118,13 +5121,13 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -5140,13 +5143,13 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39">
@@ -5168,7 +5171,7 @@
         <v>36557</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -5192,7 +5195,7 @@
         <v>36586</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -5216,7 +5219,7 @@
         <v>36617</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -5240,7 +5243,7 @@
         <v>36647</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -5258,13 +5261,13 @@
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39">
@@ -5286,12 +5289,14 @@
         <v>36678</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>0.16200000000000003</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -5328,7 +5333,7 @@
         <v>36739</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -5346,13 +5351,13 @@
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39">
@@ -5374,7 +5379,7 @@
         <v>36770</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -5392,13 +5397,13 @@
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39">
@@ -5414,13 +5419,13 @@
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
-        <v>88</v>
+        <v>455</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39">
@@ -5442,7 +5447,7 @@
         <v>36800</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -5460,13 +5465,13 @@
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39">
@@ -5528,7 +5533,7 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -5544,12 +5549,12 @@
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5570,7 +5575,7 @@
         <v>36892</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
@@ -5614,7 +5619,7 @@
         <v>36951</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -5632,13 +5637,13 @@
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -5652,13 +5657,13 @@
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39">
@@ -5674,7 +5679,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -5682,7 +5687,7 @@
         <v>36982</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -5706,7 +5711,7 @@
         <v>37012</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -5730,7 +5735,7 @@
         <v>37043</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -5754,7 +5759,7 @@
         <v>37073</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -5772,13 +5777,13 @@
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -5800,7 +5805,7 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -5814,13 +5819,13 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -5836,13 +5841,13 @@
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -5858,13 +5863,13 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -5886,7 +5891,7 @@
         <v>37104</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -5910,7 +5915,7 @@
         <v>37135</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -5928,7 +5933,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -5936,7 +5941,7 @@
         <v>37165</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -5954,13 +5959,13 @@
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39">
@@ -5982,7 +5987,7 @@
         <v>37196</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -6006,7 +6011,7 @@
         <v>37226</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -6024,12 +6029,12 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6050,7 +6055,7 @@
         <v>37257</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -6074,7 +6079,7 @@
         <v>37288</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -6098,7 +6103,7 @@
         <v>37316</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -6116,13 +6121,13 @@
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39">
@@ -6138,7 +6143,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -6146,7 +6151,7 @@
         <v>37347</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -6170,7 +6175,7 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39">
@@ -6186,7 +6191,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -6194,7 +6199,7 @@
         <v>37377</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -6212,13 +6217,13 @@
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -6234,7 +6239,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -6242,7 +6247,7 @@
         <v>37408</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C92" s="13">
         <v>1.25</v>
@@ -6260,13 +6265,13 @@
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -6330,7 +6335,7 @@
         <v>37500</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -6348,13 +6353,13 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39">
@@ -6370,7 +6375,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -6418,7 +6423,7 @@
         <v>37591</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
@@ -6442,7 +6447,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39">
@@ -6461,7 +6466,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6482,7 +6487,7 @@
         <v>37622</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -6528,7 +6533,7 @@
         <v>37681</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -6554,7 +6559,7 @@
         <v>37712</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -6576,7 +6581,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -6590,7 +6595,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -6632,7 +6637,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -6680,7 +6685,7 @@
         <v>37865</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -6698,13 +6703,13 @@
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39">
@@ -6726,7 +6731,7 @@
         <v>37895</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -6750,7 +6755,7 @@
         <v>37926</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -6768,13 +6773,13 @@
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -6790,13 +6795,13 @@
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39">
@@ -6818,7 +6823,7 @@
         <v>37956</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -6840,7 +6845,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39">
@@ -6859,7 +6864,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -6880,7 +6885,7 @@
         <v>37987</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -6898,13 +6903,13 @@
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="39">
@@ -6926,7 +6931,7 @@
         <v>38018</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -6954,7 +6959,7 @@
         <v>38047</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -6978,7 +6983,7 @@
         <v>38078</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -6996,13 +7001,13 @@
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39">
@@ -7018,7 +7023,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -7026,7 +7031,7 @@
         <v>38108</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -7050,7 +7055,7 @@
         <v>38139</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -7074,7 +7079,7 @@
         <v>38169</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -7098,7 +7103,7 @@
         <v>38200</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -7122,7 +7127,7 @@
         <v>38231</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C131" s="13">
         <v>1.25</v>
@@ -7146,7 +7151,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39">
@@ -7168,7 +7173,7 @@
         <v>38261</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -7186,7 +7191,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -7194,7 +7199,7 @@
         <v>38292</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -7218,7 +7223,7 @@
         <v>38322</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -7236,12 +7241,12 @@
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -7262,7 +7267,7 @@
         <v>38353</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C137" s="13">
         <v>1.25</v>
@@ -7280,13 +7285,13 @@
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -7306,7 +7311,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39">
@@ -7328,7 +7333,7 @@
         <v>38384</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -7346,7 +7351,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -7354,7 +7359,7 @@
         <v>38412</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C141" s="13">
         <v>1.25</v>
@@ -7372,13 +7377,13 @@
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -7394,13 +7399,13 @@
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="39">
@@ -7422,12 +7427,14 @@
         <v>38443</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C144" s="13">
         <v>1.25</v>
       </c>
-      <c r="D144" s="39"/>
+      <c r="D144" s="39">
+        <v>1.1919999999999999</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
       <c r="G144" s="13">
@@ -7444,7 +7451,7 @@
         <v>38473</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -7468,7 +7475,7 @@
         <v>38504</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -7480,7 +7487,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H146" s="39"/>
+      <c r="H146" s="39">
+        <v>1</v>
+      </c>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
       <c r="K146" s="49">
@@ -7490,7 +7499,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="39">
@@ -7512,7 +7521,7 @@
         <v>38534</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C148" s="13">
         <v>1.25</v>
@@ -7530,7 +7539,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
       <c r="K148" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -7538,7 +7547,7 @@
         <v>38565</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -7562,7 +7571,7 @@
         <v>38596</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C150" s="13">
         <v>1.25</v>
@@ -7578,13 +7587,13 @@
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
       <c r="K150" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="39"/>
@@ -7598,13 +7607,13 @@
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -7622,7 +7631,7 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="39">
@@ -7644,7 +7653,7 @@
         <v>38626</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -7668,7 +7677,7 @@
         <v>38657</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C155" s="13">
         <v>1.25</v>
@@ -7681,13 +7690,13 @@
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
       <c r="K155" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="39">
@@ -7709,7 +7718,7 @@
         <v>38687</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C157" s="13">
         <v>1.25</v>
@@ -7730,7 +7739,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -7755,7 +7764,7 @@
         <v>38718</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -7770,13 +7779,13 @@
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
       <c r="K159" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="51">
@@ -7798,7 +7807,7 @@
         <v>38749</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -7819,7 +7828,7 @@
         <v>38777</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
@@ -7830,13 +7839,13 @@
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39">
@@ -7858,7 +7867,7 @@
         <v>38808</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C164" s="13">
         <v>1.25</v>
@@ -7874,13 +7883,13 @@
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
       <c r="K164" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
@@ -7896,13 +7905,13 @@
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="39">
@@ -7918,7 +7927,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
       <c r="K166" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -7926,7 +7935,7 @@
         <v>38838</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C167" s="13">
         <v>1.25</v>
@@ -7950,7 +7959,7 @@
         <v>38869</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -7974,7 +7983,7 @@
         <v>38899</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -7998,7 +8007,7 @@
         <v>38930</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C170" s="13">
         <v>1.25</v>
@@ -8022,7 +8031,7 @@
         <v>38961</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C171" s="13">
         <v>1.25</v>
@@ -8038,13 +8047,13 @@
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="39">
@@ -8066,7 +8075,7 @@
         <v>38991</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C173" s="13">
         <v>1.25</v>
@@ -8078,17 +8087,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H173" s="39"/>
+      <c r="H173" s="39">
+        <v>3</v>
+      </c>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39"/>
@@ -8098,7 +8109,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H174" s="39"/>
+      <c r="H174" s="39">
+        <v>1</v>
+      </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
       <c r="K174" s="49">
@@ -8108,7 +8121,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="39">
@@ -8130,7 +8143,7 @@
         <v>39022</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C176" s="13">
         <v>1.25</v>
@@ -8142,17 +8155,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H176" s="39"/>
+      <c r="H176" s="39">
+        <v>3</v>
+      </c>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="39">
@@ -8174,7 +8189,7 @@
         <v>39052</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -8195,7 +8210,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -8216,7 +8231,7 @@
         <v>39083</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
@@ -8240,7 +8255,7 @@
         <v>39114</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C181" s="13">
         <v>1.25</v>
@@ -8264,7 +8279,7 @@
         <v>39142</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -8288,7 +8303,7 @@
         <v>39173</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C183" s="13">
         <v>1.25</v>
@@ -8304,13 +8319,13 @@
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="39"/>
@@ -8324,13 +8339,13 @@
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
@@ -8344,13 +8359,13 @@
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
       <c r="K185" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="39">
@@ -8372,7 +8387,7 @@
         <v>39203</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C187" s="13">
         <v>1.25</v>
@@ -8388,13 +8403,13 @@
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
       <c r="K187" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="39"/>
@@ -8410,7 +8425,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
       <c r="K188" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -8418,7 +8433,7 @@
         <v>39234</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C189" s="13">
         <v>1.25</v>
@@ -8434,13 +8449,13 @@
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="39"/>
@@ -8454,13 +8469,13 @@
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39">
@@ -8482,7 +8497,7 @@
         <v>39264</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C192" s="13">
         <v>1.25</v>
@@ -8506,7 +8521,7 @@
         <v>39295</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="39"/>
@@ -8522,13 +8537,13 @@
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
       <c r="K193" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="39">
@@ -8550,7 +8565,7 @@
         <v>39326</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -8565,13 +8580,13 @@
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
       <c r="K195" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="39">
@@ -8593,7 +8608,7 @@
         <v>39356</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C197" s="13">
         <v>1.25</v>
@@ -8614,7 +8629,7 @@
         <v>39387</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C198" s="13">
         <v>1.25</v>
@@ -8638,7 +8653,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="39"/>
@@ -8654,13 +8669,13 @@
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
@@ -8676,13 +8691,13 @@
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39"/>
@@ -8702,7 +8717,7 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="39">
@@ -8722,7 +8737,7 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39">
@@ -8744,7 +8759,7 @@
         <v>39417</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39"/>
@@ -8766,7 +8781,7 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="39">
@@ -8782,13 +8797,13 @@
       <c r="I205" s="34"/>
       <c r="J205" s="11"/>
       <c r="K205" s="49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="39">
@@ -8807,7 +8822,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -8828,7 +8843,7 @@
         <v>39448</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C208" s="13">
         <v>1.25</v>
@@ -8844,13 +8859,13 @@
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
       <c r="K208" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39">
@@ -8872,7 +8887,7 @@
         <v>39479</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -8896,7 +8911,7 @@
         <v>39508</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C211" s="13">
         <v>1.25</v>
@@ -8912,13 +8927,13 @@
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
       <c r="K211" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="39"/>
@@ -8932,13 +8947,13 @@
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
       <c r="K212" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="39"/>
@@ -8952,13 +8967,13 @@
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
       <c r="K213" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39">
@@ -8980,7 +8995,7 @@
         <v>39539</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39"/>
@@ -8994,13 +9009,13 @@
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39">
@@ -9022,7 +9037,7 @@
         <v>39569</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -9046,7 +9061,7 @@
         <v>39600</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
@@ -9070,10 +9085,10 @@
         <v>39630</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D219" s="39">
         <v>2.371</v>
@@ -9094,7 +9109,7 @@
         <v>39661</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -9118,7 +9133,7 @@
         <v>39692</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -9134,13 +9149,13 @@
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39"/>
@@ -9156,13 +9171,13 @@
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
       <c r="K222" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="39"/>
@@ -9178,13 +9193,13 @@
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
       <c r="K223" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C224" s="13"/>
       <c r="D224" s="39"/>
@@ -9200,13 +9215,13 @@
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
@@ -9222,13 +9237,13 @@
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39">
@@ -9250,7 +9265,7 @@
         <v>39722</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C227" s="13">
         <v>1.25</v>
@@ -9274,7 +9289,7 @@
         <v>39753</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="39"/>
@@ -9296,7 +9311,7 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39">
@@ -9312,13 +9327,13 @@
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
       <c r="K229" s="49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39">
@@ -9340,7 +9355,7 @@
         <v>39783</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -9358,13 +9373,13 @@
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
       <c r="K231" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39">
@@ -9384,7 +9399,7 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39">
@@ -9403,7 +9418,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -9424,7 +9439,7 @@
         <v>39814</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -9448,7 +9463,7 @@
         <v>39845</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -9472,7 +9487,7 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39"/>
@@ -9488,13 +9503,13 @@
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39"/>
@@ -9510,13 +9525,13 @@
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39"/>
@@ -9530,13 +9545,13 @@
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C240" s="13"/>
       <c r="D240" s="39">
@@ -9558,7 +9573,7 @@
         <v>39873</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C241" s="13">
         <v>1.25</v>
@@ -9576,7 +9591,7 @@
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
       <c r="K241" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
@@ -9584,7 +9599,7 @@
         <v>39904</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C242" s="13">
         <v>1.25</v>
@@ -9600,13 +9615,13 @@
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
       <c r="K242" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C243" s="13"/>
       <c r="D243" s="39"/>
@@ -9624,7 +9639,7 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
@@ -9634,17 +9649,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H244" s="39"/>
+      <c r="H244" s="39">
+        <v>5</v>
+      </c>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
       <c r="K244" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39"/>
@@ -9658,13 +9675,13 @@
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="39">
@@ -9686,7 +9703,7 @@
         <v>39934</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -9710,7 +9727,7 @@
         <v>39965</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C248" s="13">
         <v>1.25</v>
@@ -9734,7 +9751,7 @@
         <v>39995</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -9752,13 +9769,13 @@
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
       <c r="K249" s="49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39">
@@ -9780,7 +9797,7 @@
         <v>40026</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -9804,7 +9821,7 @@
         <v>40057</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C252" s="13">
         <v>1.25</v>
@@ -9828,7 +9845,7 @@
         <v>40087</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C253" s="13">
         <v>1.25</v>
@@ -9852,7 +9869,7 @@
         <v>40118</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -9876,7 +9893,7 @@
         <v>40148</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C255" s="13">
         <v>1.25</v>
@@ -9894,12 +9911,12 @@
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -9920,7 +9937,7 @@
         <v>40179</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C257" s="13">
         <v>1.25</v>
@@ -9944,7 +9961,7 @@
         <v>40210</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C258" s="13">
         <v>1.25</v>
@@ -9960,13 +9977,13 @@
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="39">
@@ -9982,7 +9999,7 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
@@ -9990,7 +10007,7 @@
         <v>40238</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -10006,13 +10023,13 @@
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
       <c r="K260" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="39"/>
@@ -10026,13 +10043,13 @@
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
@@ -10046,13 +10063,13 @@
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39">
@@ -10074,7 +10091,7 @@
         <v>40269</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -10092,13 +10109,13 @@
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39"/>
@@ -10112,13 +10129,13 @@
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="39">
@@ -10134,7 +10151,7 @@
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
@@ -10142,7 +10159,7 @@
         <v>40299</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -10160,7 +10177,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
@@ -10168,7 +10185,7 @@
         <v>40330</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -10192,7 +10209,7 @@
         <v>40360</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -10210,7 +10227,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
       <c r="K269" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
@@ -10218,7 +10235,7 @@
         <v>40391</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -10242,7 +10259,7 @@
         <v>40422</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C271" s="13">
         <v>1.25</v>
@@ -10260,7 +10277,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -10268,7 +10285,7 @@
         <v>40452</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -10292,7 +10309,7 @@
         <v>40483</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -10310,7 +10327,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="11"/>
       <c r="K273" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
@@ -10318,7 +10335,7 @@
         <v>40513</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -10334,13 +10351,13 @@
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -10359,7 +10376,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -10480,7 +10497,7 @@
         <v>40695</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C282" s="13">
         <v>1.25</v>
@@ -10498,7 +10515,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -10506,7 +10523,7 @@
         <v>40725</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C283" s="13">
         <v>1.25</v>
@@ -10530,7 +10547,7 @@
         <v>40756</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -10554,7 +10571,7 @@
         <v>40787</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C285" s="13">
         <v>1.25</v>
@@ -10572,7 +10589,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -10620,7 +10637,7 @@
         <v>40878</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -10638,13 +10655,13 @@
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
       <c r="K288" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="39"/>
@@ -10660,13 +10677,13 @@
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
       <c r="K289" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39">
@@ -10701,7 +10718,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -10742,7 +10759,7 @@
         <v>40940</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -10760,7 +10777,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
       <c r="K294" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -10768,7 +10785,7 @@
         <v>40969</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C295" s="13">
         <v>1.25</v>
@@ -10786,13 +10803,13 @@
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="39"/>
@@ -10808,13 +10825,13 @@
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39"/>
@@ -10828,7 +10845,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -10836,7 +10853,7 @@
         <v>41000</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C298" s="13">
         <v>1.25</v>
@@ -10854,13 +10871,13 @@
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C299" s="13"/>
       <c r="D299" s="39"/>
@@ -10874,7 +10891,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -10882,7 +10899,7 @@
         <v>41030</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -10900,7 +10917,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -10968,7 +10985,7 @@
         <v>41153</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C304" s="13">
         <v>1.25</v>
@@ -10986,13 +11003,13 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39">
@@ -11008,13 +11025,13 @@
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -11030,13 +11047,13 @@
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="39"/>
@@ -11052,7 +11069,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
@@ -11060,7 +11077,7 @@
         <v>41183</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -11076,13 +11093,13 @@
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -11098,7 +11115,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -11106,7 +11123,7 @@
         <v>41214</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C310" s="13">
         <v>1.25</v>
@@ -11124,13 +11141,13 @@
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
@@ -11144,7 +11161,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -11152,7 +11169,7 @@
         <v>41244</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -11170,13 +11187,13 @@
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C313" s="13"/>
       <c r="D313" s="39">
@@ -11195,7 +11212,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -11216,7 +11233,7 @@
         <v>41275</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
@@ -11232,13 +11249,13 @@
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C316" s="13">
         <v>1.25</v>
@@ -11262,7 +11279,7 @@
         <v>41306</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -11286,7 +11303,7 @@
         <v>41334</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C318" s="13">
         <v>1.25</v>
@@ -11304,13 +11321,13 @@
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
@@ -11324,13 +11341,13 @@
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -11340,17 +11357,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H320" s="39"/>
+      <c r="H320" s="39">
+        <v>3</v>
+      </c>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
@@ -11364,16 +11383,18 @@
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C322" s="13"/>
-      <c r="D322" s="39"/>
+      <c r="D322" s="39">
+        <v>3.7119999999999997</v>
+      </c>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
       <c r="G322" s="13" t="str">
@@ -11410,7 +11431,7 @@
         <v>41395</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C324" s="13">
         <v>1.25</v>
@@ -11434,7 +11455,7 @@
         <v>41426</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -11458,7 +11479,7 @@
         <v>41456</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -11482,7 +11503,7 @@
         <v>41487</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C327" s="13">
         <v>1.25</v>
@@ -11500,13 +11521,13 @@
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39">
@@ -11528,7 +11549,7 @@
         <v>41518</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C329" s="13">
         <v>1.25</v>
@@ -11546,13 +11567,13 @@
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39">
@@ -11574,7 +11595,7 @@
         <v>41548</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -11598,7 +11619,7 @@
         <v>41579</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -11622,7 +11643,7 @@
         <v>41609</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -11643,7 +11664,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -11664,7 +11685,7 @@
         <v>41640</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -11682,13 +11703,13 @@
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
       <c r="K335" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
@@ -11702,13 +11723,13 @@
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
@@ -11724,13 +11745,13 @@
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C338" s="13"/>
       <c r="D338" s="39">
@@ -11752,7 +11773,7 @@
         <v>41671</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -11776,7 +11797,7 @@
         <v>41699</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C340" s="13">
         <v>1.25</v>
@@ -11794,7 +11815,7 @@
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
@@ -11802,7 +11823,7 @@
         <v>41730</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -11820,13 +11841,13 @@
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -11842,13 +11863,13 @@
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
@@ -11862,13 +11883,13 @@
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="39">
@@ -11890,7 +11911,7 @@
         <v>41760</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -11974,7 +11995,7 @@
         <v>41883</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C349" s="13">
         <v>1.25</v>
@@ -11992,7 +12013,7 @@
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
@@ -12000,7 +12021,7 @@
         <v>41913</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C350" s="13">
         <v>1.25</v>
@@ -12024,7 +12045,7 @@
         <v>41944</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -12048,7 +12069,7 @@
         <v>41974</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
@@ -12066,13 +12087,13 @@
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="39">
@@ -12091,7 +12112,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -12114,7 +12135,7 @@
         <v>42005</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C355" s="13">
         <v>1.25</v>
@@ -12138,7 +12159,7 @@
         <v>42036</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
@@ -12162,7 +12183,7 @@
         <v>42064</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
@@ -12186,7 +12207,7 @@
         <v>42095</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C358" s="13">
         <v>1.25</v>
@@ -12204,13 +12225,13 @@
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -12224,13 +12245,13 @@
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -12250,7 +12271,7 @@
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39">
@@ -12272,7 +12293,7 @@
         <v>42125</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C362" s="13">
         <v>1.25</v>
@@ -12296,7 +12317,7 @@
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -12310,13 +12331,13 @@
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -12332,13 +12353,13 @@
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39">
@@ -12360,7 +12381,7 @@
         <v>42156</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C366" s="13">
         <v>1.25</v>
@@ -12384,7 +12405,7 @@
         <v>42186</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C367" s="13">
         <v>1.25</v>
@@ -12408,7 +12429,7 @@
         <v>42217</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C368" s="13">
         <v>1.25</v>
@@ -12432,7 +12453,7 @@
         <v>42248</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C369" s="13">
         <v>1.25</v>
@@ -12450,13 +12471,13 @@
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C370" s="13"/>
       <c r="D370" s="39">
@@ -12478,7 +12499,7 @@
         <v>42278</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C371" s="13">
         <v>1.25</v>
@@ -12496,13 +12517,13 @@
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
       <c r="K371" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C372" s="13"/>
       <c r="D372" s="39">
@@ -12524,7 +12545,7 @@
         <v>42309</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C373" s="13">
         <v>1.25</v>
@@ -12536,17 +12557,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H373" s="39"/>
+      <c r="H373" s="39">
+        <v>2</v>
+      </c>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
       <c r="K373" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C374" s="13"/>
       <c r="D374" s="39">
@@ -12568,7 +12591,7 @@
         <v>42339</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C375" s="13">
         <v>1.25</v>
@@ -12586,25 +12609,25 @@
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C376" s="13"/>
-      <c r="D376" s="39"/>
+      <c r="D376" s="39">
+        <v>1</v>
+      </c>
       <c r="E376" s="9"/>
       <c r="F376" s="20"/>
       <c r="G376" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H376" s="39">
-        <v>1</v>
-      </c>
+      <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
@@ -12612,7 +12635,7 @@
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39">
@@ -12631,7 +12654,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -12652,7 +12675,7 @@
         <v>42370</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -12676,7 +12699,7 @@
         <v>42401</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C380" s="13">
         <v>1.25</v>
@@ -12700,7 +12723,7 @@
         <v>42430</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C381" s="13">
         <v>1.25</v>
@@ -12716,13 +12739,13 @@
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
       <c r="K381" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C382" s="13"/>
       <c r="D382" s="39">
@@ -12744,7 +12767,7 @@
         <v>42461</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -12760,13 +12783,13 @@
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
@@ -12780,13 +12803,13 @@
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
       <c r="K384" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C385" s="13"/>
       <c r="D385" s="39"/>
@@ -12799,13 +12822,13 @@
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
       <c r="K385" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C386" s="13"/>
       <c r="D386" s="39">
@@ -12824,7 +12847,7 @@
         <v>42491</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -12842,13 +12865,13 @@
       <c r="I387" s="9"/>
       <c r="J387" s="11"/>
       <c r="K387" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C388" s="13"/>
       <c r="D388" s="39">
@@ -12870,7 +12893,7 @@
         <v>42522</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C389" s="13">
         <v>1.25</v>
@@ -12894,7 +12917,7 @@
         <v>42552</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -12918,7 +12941,7 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39"/>
@@ -12934,13 +12957,13 @@
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="49" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C392" s="13"/>
       <c r="D392" s="39">
@@ -12962,7 +12985,7 @@
         <v>42583</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -12986,7 +13009,7 @@
         <v>42614</v>
       </c>
       <c r="B394" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C394" s="13">
         <v>1.25</v>
@@ -13004,13 +13027,13 @@
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
@@ -13026,7 +13049,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
       <c r="K395" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
@@ -13034,7 +13057,7 @@
         <v>42644</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C396" s="13">
         <v>1.25</v>
@@ -13058,7 +13081,7 @@
         <v>42675</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -13080,7 +13103,7 @@
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39">
@@ -13102,7 +13125,7 @@
         <v>42705</v>
       </c>
       <c r="B399" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C399" s="13">
         <v>1.25</v>
@@ -13120,13 +13143,13 @@
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
       <c r="K399" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
@@ -13142,13 +13165,13 @@
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39">
@@ -13167,7 +13190,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -13188,7 +13211,7 @@
         <v>42736</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
@@ -13206,7 +13229,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
@@ -13254,7 +13277,7 @@
         <v>42826</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C406" s="13">
         <v>1.25</v>
@@ -13272,13 +13295,13 @@
       <c r="I406" s="9"/>
       <c r="J406" s="12"/>
       <c r="K406" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39"/>
@@ -13292,7 +13315,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
@@ -13300,7 +13323,7 @@
         <v>42856</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C408" s="13">
         <v>1.25</v>
@@ -13316,13 +13339,13 @@
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
       <c r="K408" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39"/>
@@ -13338,13 +13361,13 @@
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
@@ -13360,7 +13383,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
       <c r="K410" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
@@ -13428,7 +13451,7 @@
         <v>42979</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C414" s="13">
         <v>1.25</v>
@@ -13446,13 +13469,13 @@
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -13468,7 +13491,7 @@
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
       <c r="K415" s="20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
@@ -13516,7 +13539,7 @@
         <v>43070</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C418" s="13">
         <v>1.25</v>
@@ -13534,13 +13557,13 @@
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
       <c r="K418" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
@@ -13556,13 +13579,13 @@
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39">
@@ -13578,13 +13601,13 @@
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
       <c r="K420" s="20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C421" s="13"/>
       <c r="D421" s="39">
@@ -13603,7 +13626,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -13624,7 +13647,7 @@
         <v>43101</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C423" s="13">
         <v>1.25</v>
@@ -13642,13 +13665,13 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -13664,7 +13687,7 @@
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
@@ -13672,7 +13695,7 @@
         <v>43132</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C425" s="13">
         <v>1.25</v>
@@ -13688,13 +13711,13 @@
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -13710,7 +13733,7 @@
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
@@ -13718,7 +13741,7 @@
         <v>43160</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -13736,13 +13759,13 @@
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -13758,13 +13781,13 @@
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
       <c r="K428" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C429" s="13"/>
       <c r="D429" s="39"/>
@@ -13778,7 +13801,7 @@
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
@@ -13806,12 +13829,14 @@
         <v>43221</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C431" s="13">
         <v>1.25</v>
       </c>
-      <c r="D431" s="39"/>
+      <c r="D431" s="39">
+        <v>2.6829999999999998</v>
+      </c>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
       <c r="G431" s="13">
@@ -13828,12 +13853,14 @@
         <v>43252</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C432" s="13">
         <v>1.25</v>
       </c>
-      <c r="D432" s="39"/>
+      <c r="D432" s="39">
+        <v>2.1920000000000002</v>
+      </c>
       <c r="E432" s="9"/>
       <c r="F432" s="20"/>
       <c r="G432" s="13">
@@ -13850,12 +13877,14 @@
         <v>43282</v>
       </c>
       <c r="B433" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C433" s="13">
         <v>1.25</v>
       </c>
-      <c r="D433" s="39"/>
+      <c r="D433" s="39">
+        <v>2.1960000000000002</v>
+      </c>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
       <c r="G433" s="13">
@@ -13872,12 +13901,14 @@
         <v>43313</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
       </c>
-      <c r="D434" s="39"/>
+      <c r="D434" s="39">
+        <v>1.421</v>
+      </c>
       <c r="E434" s="9"/>
       <c r="F434" s="20"/>
       <c r="G434" s="13">
@@ -13888,7 +13919,7 @@
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
       <c r="K434" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
@@ -13896,7 +13927,7 @@
         <v>43344</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
@@ -13920,7 +13951,7 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C436" s="13"/>
       <c r="D436" s="39">
@@ -13936,16 +13967,18 @@
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
       <c r="K436" s="49" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C437" s="13"/>
-      <c r="D437" s="39"/>
+      <c r="D437" s="39">
+        <v>1.8919999999999999</v>
+      </c>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
       <c r="G437" s="13" t="str">
@@ -13962,12 +13995,14 @@
         <v>43374</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C438" s="13">
         <v>1.25</v>
       </c>
-      <c r="D438" s="39"/>
+      <c r="D438" s="39">
+        <v>3.7919999999999998</v>
+      </c>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
       <c r="G438" s="13">
@@ -13984,12 +14019,14 @@
         <v>43405</v>
       </c>
       <c r="B439" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C439" s="13">
         <v>1.25</v>
       </c>
-      <c r="D439" s="39"/>
+      <c r="D439" s="39">
+        <v>1.6080000000000001</v>
+      </c>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
       <c r="G439" s="13">
@@ -14006,7 +14043,7 @@
         <v>43435</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C440" s="13">
         <v>1.25</v>
@@ -14024,13 +14061,13 @@
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
       <c r="K440" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C441" s="13"/>
       <c r="D441" s="39"/>
@@ -14046,13 +14083,13 @@
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
       <c r="K441" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C442" s="13"/>
       <c r="D442" s="39">
@@ -14072,10 +14109,12 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C443" s="13"/>
-      <c r="D443" s="39"/>
+      <c r="D443" s="39">
+        <v>1.1080000000000001</v>
+      </c>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
       <c r="G443" s="13" t="str">
@@ -14089,7 +14128,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -14130,7 +14169,7 @@
         <v>43497</v>
       </c>
       <c r="B446" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C446" s="13">
         <v>1.25</v>
@@ -14148,7 +14187,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
       <c r="K446" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
@@ -14156,7 +14195,7 @@
         <v>43525</v>
       </c>
       <c r="B447" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C447" s="13">
         <v>1.25</v>
@@ -14168,11 +14207,13 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H447" s="39"/>
+      <c r="H447" s="39">
+        <v>1</v>
+      </c>
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
       <c r="K447" s="20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
@@ -14200,7 +14241,7 @@
         <v>43586</v>
       </c>
       <c r="B449" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C449" s="13">
         <v>1.25</v>
@@ -14216,13 +14257,13 @@
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
       <c r="K449" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C450" s="13"/>
       <c r="D450" s="39">
@@ -14238,7 +14279,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
       <c r="K450" s="20" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
@@ -14306,7 +14347,7 @@
         <v>43709</v>
       </c>
       <c r="B454" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C454" s="13">
         <v>1.25</v>
@@ -14324,13 +14365,13 @@
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
       <c r="K454" s="20" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C455" s="13"/>
       <c r="D455" s="39"/>
@@ -14346,7 +14387,7 @@
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
       <c r="K455" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
@@ -14394,7 +14435,7 @@
         <v>43800</v>
       </c>
       <c r="B458" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C458" s="13">
         <v>1.25</v>
@@ -14415,7 +14456,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="48" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -14436,7 +14477,7 @@
         <v>43831</v>
       </c>
       <c r="B460" s="20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C460" s="13">
         <v>1.25</v>
@@ -14452,7 +14493,7 @@
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
       <c r="K460" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
@@ -14660,7 +14701,7 @@
         <v>44166</v>
       </c>
       <c r="B471" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C471" s="13">
         <v>1.25</v>
@@ -14681,7 +14722,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="48" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -14782,7 +14823,7 @@
         <v>44317</v>
       </c>
       <c r="B477" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C477" s="13">
         <v>1.25</v>
@@ -14798,7 +14839,7 @@
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
       <c r="K477" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
@@ -14924,7 +14965,7 @@
         <v>44531</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C484" s="13">
         <v>1.25</v>
@@ -14942,13 +14983,13 @@
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
       <c r="K484" s="20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39">
@@ -14967,7 +15008,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="48" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14988,7 +15029,7 @@
         <v>44562</v>
       </c>
       <c r="B487" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C487" s="13">
         <v>1.25</v>
@@ -15006,7 +15047,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
       <c r="K487" s="20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
@@ -15034,7 +15075,7 @@
         <v>44621</v>
       </c>
       <c r="B489" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C489" s="13">
         <v>1.25</v>
@@ -15050,7 +15091,7 @@
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
       <c r="K489" s="20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
@@ -15058,7 +15099,7 @@
         <v>44652</v>
       </c>
       <c r="B490" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C490" s="13">
         <v>1.25</v>
@@ -15076,13 +15117,13 @@
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
       <c r="K490" s="20" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
@@ -15096,7 +15137,7 @@
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
       <c r="K491" s="20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
@@ -15184,7 +15225,7 @@
         <v>44805</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C496" s="13">
         <v>1.25</v>
@@ -15208,7 +15249,7 @@
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="39">
@@ -15232,7 +15273,7 @@
         <v>44835</v>
       </c>
       <c r="B498" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C498" s="13">
         <v>1.25</v>
@@ -15278,7 +15319,7 @@
         <v>44896</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C500" s="13">
         <v>1.25</v>
@@ -15296,12 +15337,12 @@
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
       <c r="K500" s="20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="48" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -15361,19 +15402,27 @@
       <c r="A504" s="40">
         <v>44986</v>
       </c>
-      <c r="B504" s="20"/>
-      <c r="C504" s="13"/>
-      <c r="D504" s="39"/>
+      <c r="B504" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C504" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D504" s="39">
+        <v>1</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G504" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="49">
+        <v>45014</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
@@ -15896,7 +15945,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15956,23 +16005,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="B3" s="11">
-        <v>33.698999999999998</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G3" s="47">
-        <v>0.3</v>
+        <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
+        <v>1.1080000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
+++ b/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B7AC3F-989C-4AC1-AF48-99841F563B39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A9052E-D18F-4FBA-8596-E53D16095E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="457">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1403,6 +1403,9 @@
   </si>
   <si>
     <t>UT(0-1-26)</t>
+  </si>
+  <si>
+    <t>3/2,3,4/2023</t>
   </si>
 </sst>
 </file>
@@ -3822,8 +3825,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K531" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K531" xr:uid="{36EE1C43-D79C-4278-996D-C99D3D0DDA91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K532" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K532" xr:uid="{36EE1C43-D79C-4278-996D-C99D3D0DDA91}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3855,7 +3858,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
-  <sortState ref="D3:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:G3">
     <sortCondition ref="G2:G3"/>
   </sortState>
   <tableColumns count="4">
@@ -4204,12 +4207,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K531"/>
+  <dimension ref="A2:K532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A497" activePane="bottomLeft"/>
       <selection activeCell="K140" sqref="K140"/>
-      <selection pane="bottomLeft" activeCell="F502" sqref="F502"/>
+      <selection pane="bottomLeft" activeCell="B507" sqref="B507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4372,7 +4375,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.540999999999997</v>
+        <v>54.540999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15425,12 +15428,14 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A505" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B505" s="20"/>
+      <c r="A505" s="40"/>
+      <c r="B505" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C505" s="13"/>
-      <c r="D505" s="39"/>
+      <c r="D505" s="39">
+        <v>3</v>
+      </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
       <c r="G505" s="13" t="str">
@@ -15440,13 +15445,17 @@
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="49" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B506" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B506" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C506" s="13"/>
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
@@ -15458,11 +15467,13 @@
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="20"/>
+      <c r="K506" s="49">
+        <v>45051</v>
+      </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15480,7 +15491,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15498,7 +15509,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15516,7 +15527,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15534,7 +15545,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15552,7 +15563,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15570,7 +15581,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15588,7 +15599,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15606,7 +15617,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15624,7 +15635,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15642,7 +15653,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15660,7 +15671,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15678,7 +15689,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15696,7 +15707,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15714,7 +15725,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15732,7 +15743,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15750,7 +15761,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15768,7 +15779,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15786,7 +15797,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15803,7 +15814,9 @@
       <c r="K525" s="20"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A526" s="40"/>
+      <c r="A526" s="40">
+        <v>45627</v>
+      </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
       <c r="D526" s="39"/>
@@ -15883,20 +15896,36 @@
       <c r="K530" s="20"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A531" s="41"/>
-      <c r="B531" s="15"/>
-      <c r="C531" s="42"/>
-      <c r="D531" s="43"/>
-      <c r="E531" s="52"/>
-      <c r="F531" s="15"/>
-      <c r="G531" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H531" s="43"/>
-      <c r="I531" s="52"/>
-      <c r="J531" s="12"/>
-      <c r="K531" s="15"/>
+      <c r="A531" s="40"/>
+      <c r="B531" s="20"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="39"/>
+      <c r="E531" s="9"/>
+      <c r="F531" s="20"/>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H531" s="39"/>
+      <c r="I531" s="9"/>
+      <c r="J531" s="11"/>
+      <c r="K531" s="20"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A532" s="41"/>
+      <c r="B532" s="15"/>
+      <c r="C532" s="42"/>
+      <c r="D532" s="43"/>
+      <c r="E532" s="52"/>
+      <c r="F532" s="15"/>
+      <c r="G532" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H532" s="43"/>
+      <c r="I532" s="52"/>
+      <c r="J532" s="12"/>
+      <c r="K532" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
+++ b/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A9052E-D18F-4FBA-8596-E53D16095E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="459">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1406,12 +1405,18 @@
   </si>
   <si>
     <t>3/2,3,4/2023</t>
+  </si>
+  <si>
+    <t>EMERGENCY 4/28/2023</t>
+  </si>
+  <si>
+    <t>PERSONAL 5/8/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1857,7 +1862,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1932,7 +1936,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -2000,7 +2003,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2242,7 +2244,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2290,7 +2291,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2334,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2398,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2458,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2524,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2587,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2685,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2744,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2809,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,7 +2852,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2927,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3113,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3179,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3237,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +3303,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3359,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3434,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,7 +3477,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,7 +3543,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +3599,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3696,7 +3697,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3759,7 +3760,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3825,26 +3826,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K532" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K532" xr:uid="{36EE1C43-D79C-4278-996D-C99D3D0DDA91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K534" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K534"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3856,16 +3857,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:G3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
+  <sortState ref="D3:G3">
     <sortCondition ref="G2:G3"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3874,14 +3875,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4185,7 +4186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4195,7 +4196,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4203,34 +4204,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K532"/>
+  <dimension ref="A2:K534"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A497" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A495" activePane="bottomLeft"/>
       <selection activeCell="K140" sqref="K140"/>
-      <selection pane="bottomLeft" activeCell="B507" sqref="B507"/>
+      <selection pane="bottomLeft" activeCell="B510" sqref="B510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4251,7 +4252,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4271,7 +4272,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4293,7 +4294,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4301,7 +4302,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4314,7 +4315,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4331,7 +4332,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4375,7 +4376,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>54.540999999999997</v>
+        <v>55.790999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4385,12 +4386,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>176.69900000000001</v>
+        <v>176.94900000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4412,7 +4413,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35947</v>
       </c>
@@ -4433,7 +4434,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4451,7 +4452,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35977</v>
       </c>
@@ -4471,7 +4472,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>31</v>
       </c>
@@ -4491,7 +4492,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36008</v>
       </c>
@@ -4515,7 +4516,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36039</v>
       </c>
@@ -4539,7 +4540,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36069</v>
       </c>
@@ -4559,7 +4560,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36100</v>
       </c>
@@ -4579,7 +4580,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36130</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>50</v>
@@ -4627,7 +4628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -4649,7 +4650,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>49</v>
@@ -4669,7 +4670,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -4687,7 +4688,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36161</v>
       </c>
@@ -4707,7 +4708,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36192</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>36435</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>51</v>
@@ -4755,7 +4756,7 @@
         <v>36405</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36220</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -4805,7 +4806,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36281</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36312</v>
       </c>
@@ -4855,7 +4856,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36342</v>
       </c>
@@ -4879,7 +4880,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36373</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>63</v>
@@ -4925,7 +4926,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36404</v>
       </c>
@@ -4949,7 +4950,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36434</v>
       </c>
@@ -4969,7 +4970,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36465</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>165</v>
@@ -5015,7 +5016,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36495</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>58</v>
@@ -5063,7 +5064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="20" t="s">
         <v>73</v>
@@ -5083,7 +5084,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>70</v>
       </c>
@@ -5101,7 +5102,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36526</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>58</v>
@@ -5149,7 +5150,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>48</v>
@@ -5169,7 +5170,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36557</v>
       </c>
@@ -5193,7 +5194,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36586</v>
       </c>
@@ -5217,7 +5218,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36617</v>
       </c>
@@ -5241,7 +5242,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36647</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>79</v>
@@ -5287,7 +5288,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36678</v>
       </c>
@@ -5311,7 +5312,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36708</v>
       </c>
@@ -5331,7 +5332,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36739</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>83</v>
@@ -5377,7 +5378,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36770</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>85</v>
@@ -5425,7 +5426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>455</v>
@@ -5445,7 +5446,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36800</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>88</v>
@@ -5491,7 +5492,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36831</v>
       </c>
@@ -5511,7 +5512,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36861</v>
       </c>
@@ -5533,7 +5534,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>58</v>
@@ -5555,7 +5556,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>90</v>
       </c>
@@ -5573,7 +5574,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36892</v>
       </c>
@@ -5597,7 +5598,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36923</v>
       </c>
@@ -5617,7 +5618,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36951</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>92</v>
@@ -5663,7 +5664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>95</v>
@@ -5685,7 +5686,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36982</v>
       </c>
@@ -5709,7 +5710,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37012</v>
       </c>
@@ -5733,7 +5734,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37043</v>
       </c>
@@ -5757,7 +5758,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37073</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
@@ -5805,7 +5806,7 @@
         <v>37141</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>92</v>
@@ -5825,7 +5826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>51</v>
@@ -5847,7 +5848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>51</v>
@@ -5869,7 +5870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>102</v>
@@ -5889,7 +5890,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37104</v>
       </c>
@@ -5913,7 +5914,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37135</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37165</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>107</v>
@@ -5985,7 +5986,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37196</v>
       </c>
@@ -6009,7 +6010,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37226</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>111</v>
       </c>
@@ -6053,7 +6054,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37257</v>
       </c>
@@ -6077,7 +6078,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37288</v>
       </c>
@@ -6101,7 +6102,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37316</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>54</v>
@@ -6149,7 +6150,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37347</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>37260</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>116</v>
@@ -6197,7 +6198,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37377</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>51</v>
@@ -6245,7 +6246,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37408</v>
       </c>
@@ -6271,7 +6272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>51</v>
@@ -6293,7 +6294,7 @@
         <v>37566</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37438</v>
       </c>
@@ -6313,7 +6314,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37469</v>
       </c>
@@ -6333,7 +6334,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37500</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>50</v>
@@ -6381,7 +6382,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37530</v>
       </c>
@@ -6401,7 +6402,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37561</v>
       </c>
@@ -6421,7 +6422,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>37299</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>164</v>
@@ -6467,7 +6468,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>123</v>
       </c>
@@ -6485,7 +6486,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37622</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>37895</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37653</v>
       </c>
@@ -6531,7 +6532,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37681</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>37897</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37712</v>
       </c>
@@ -6581,7 +6582,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>124</v>
@@ -6601,7 +6602,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37742</v>
       </c>
@@ -6621,7 +6622,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37773</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37803</v>
       </c>
@@ -6663,7 +6664,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37834</v>
       </c>
@@ -6683,7 +6684,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37865</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>127</v>
@@ -6729,7 +6730,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37895</v>
       </c>
@@ -6753,7 +6754,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37926</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>51</v>
@@ -6801,7 +6802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>132</v>
@@ -6821,7 +6822,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37956</v>
       </c>
@@ -6845,7 +6846,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>83</v>
@@ -6865,7 +6866,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>134</v>
       </c>
@@ -6883,7 +6884,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37987</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>102</v>
@@ -6929,7 +6930,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38018</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>38109</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38047</v>
       </c>
@@ -6981,7 +6982,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38078</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>138</v>
@@ -7029,7 +7030,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38108</v>
       </c>
@@ -7053,7 +7054,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38139</v>
       </c>
@@ -7077,7 +7078,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38169</v>
       </c>
@@ -7101,7 +7102,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38200</v>
       </c>
@@ -7125,7 +7126,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38231</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>37995</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>142</v>
@@ -7171,7 +7172,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="49"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38261</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38292</v>
       </c>
@@ -7221,7 +7222,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38322</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>147</v>
       </c>
@@ -7265,7 +7266,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38353</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>51</v>
@@ -7311,7 +7312,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>148</v>
@@ -7331,7 +7332,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38384</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38412</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>58</v>
@@ -7405,7 +7406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>153</v>
@@ -7425,7 +7426,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38443</v>
       </c>
@@ -7449,7 +7450,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38473</v>
       </c>
@@ -7473,7 +7474,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38504</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>38417</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>154</v>
@@ -7519,7 +7520,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38534</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38565</v>
       </c>
@@ -7569,7 +7570,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38596</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>157</v>
@@ -7613,7 +7614,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>158</v>
@@ -7631,7 +7632,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>159</v>
@@ -7651,7 +7652,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38626</v>
       </c>
@@ -7675,7 +7676,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="49"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38657</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>97</v>
@@ -7716,7 +7717,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="49"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38687</v>
       </c>
@@ -7740,7 +7741,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
         <v>162</v>
       </c>
@@ -7762,7 +7763,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38718</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>175</v>
@@ -7805,7 +7806,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38749</v>
       </c>
@@ -7826,7 +7827,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38777</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>178</v>
@@ -7865,7 +7866,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38808</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>58</v>
@@ -7911,7 +7912,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>180</v>
@@ -7933,7 +7934,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38838</v>
       </c>
@@ -7957,7 +7958,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38869</v>
       </c>
@@ -7981,7 +7982,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38899</v>
       </c>
@@ -8005,7 +8006,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38930</v>
       </c>
@@ -8029,7 +8030,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38961</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>191</v>
@@ -8073,7 +8074,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38991</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>51</v>
@@ -8121,7 +8122,7 @@
         <v>38847</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>194</v>
@@ -8141,7 +8142,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39022</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>197</v>
@@ -8187,7 +8188,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39052</v>
       </c>
@@ -8211,7 +8212,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
         <v>166</v>
       </c>
@@ -8229,7 +8230,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39083</v>
       </c>
@@ -8253,7 +8254,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39114</v>
       </c>
@@ -8277,7 +8278,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39142</v>
       </c>
@@ -8301,7 +8302,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39173</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>157</v>
@@ -8345,7 +8346,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>92</v>
@@ -8365,7 +8366,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>205</v>
@@ -8385,7 +8386,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39203</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>51</v>
@@ -8431,7 +8432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39234</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>92</v>
@@ -8475,7 +8476,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>211</v>
@@ -8495,7 +8496,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39264</v>
       </c>
@@ -8519,7 +8520,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39295</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>213</v>
@@ -8563,7 +8564,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39326</v>
       </c>
@@ -8586,7 +8587,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>215</v>
@@ -8606,7 +8607,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39356</v>
       </c>
@@ -8627,7 +8628,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39387</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>58</v>
@@ -8675,7 +8676,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>58</v>
@@ -8697,7 +8698,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>192</v>
@@ -8717,7 +8718,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>220</v>
@@ -8737,7 +8738,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>221</v>
@@ -8757,7 +8758,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39417</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>133</v>
@@ -8803,7 +8804,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>224</v>
@@ -8823,7 +8824,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>222</v>
       </c>
@@ -8841,7 +8842,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>39448</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>225</v>
@@ -8885,7 +8886,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39479</v>
       </c>
@@ -8909,7 +8910,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39508</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>92</v>
@@ -8953,7 +8954,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>157</v>
@@ -8973,7 +8974,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>231</v>
@@ -8993,7 +8994,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39539</v>
       </c>
@@ -9015,7 +9016,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>233</v>
@@ -9035,7 +9036,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39569</v>
       </c>
@@ -9059,7 +9060,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39600</v>
       </c>
@@ -9083,7 +9084,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39630</v>
       </c>
@@ -9107,7 +9108,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39661</v>
       </c>
@@ -9131,7 +9132,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39692</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>51</v>
@@ -9177,7 +9178,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>192</v>
@@ -9199,7 +9200,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>51</v>
@@ -9221,7 +9222,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>51</v>
@@ -9243,7 +9244,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>244</v>
@@ -9263,7 +9264,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39722</v>
       </c>
@@ -9287,7 +9288,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39753</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>39763</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>217</v>
@@ -9333,7 +9334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>247</v>
@@ -9353,7 +9354,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="49"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>39783</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>164</v>
@@ -9399,7 +9400,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>250</v>
@@ -9419,7 +9420,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="48" t="s">
         <v>249</v>
       </c>
@@ -9437,7 +9438,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>39814</v>
       </c>
@@ -9461,7 +9462,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39845</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>51</v>
@@ -9509,7 +9510,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>192</v>
@@ -9531,7 +9532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>92</v>
@@ -9551,7 +9552,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>255</v>
@@ -9571,7 +9572,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39873</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39904</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>92</v>
@@ -9639,7 +9640,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>51</v>
@@ -9661,7 +9662,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>179</v>
@@ -9681,7 +9682,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>259</v>
@@ -9701,7 +9702,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>39934</v>
       </c>
@@ -9725,7 +9726,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>39965</v>
       </c>
@@ -9749,7 +9750,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39995</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>266</v>
@@ -9795,7 +9796,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="49"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>40026</v>
       </c>
@@ -9819,7 +9820,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>40057</v>
       </c>
@@ -9843,7 +9844,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>40087</v>
       </c>
@@ -9867,7 +9868,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40118</v>
       </c>
@@ -9891,7 +9892,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>40148</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>272</v>
       </c>
@@ -9935,7 +9936,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40179</v>
       </c>
@@ -9959,7 +9960,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>40210</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>275</v>
@@ -10005,7 +10006,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40238</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>179</v>
@@ -10049,7 +10050,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>92</v>
@@ -10069,7 +10070,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>279</v>
@@ -10089,7 +10090,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40269</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>92</v>
@@ -10135,7 +10136,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>283</v>
@@ -10157,7 +10158,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40299</v>
       </c>
@@ -10183,7 +10184,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40330</v>
       </c>
@@ -10207,7 +10208,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40360</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>40391</v>
       </c>
@@ -10257,7 +10258,7 @@
       <c r="J270" s="12"/>
       <c r="K270" s="15"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40422</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40452</v>
       </c>
@@ -10307,7 +10308,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40483</v>
       </c>
@@ -10333,7 +10334,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>40513</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>290</v>
@@ -10377,7 +10378,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
         <v>297</v>
       </c>
@@ -10395,7 +10396,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40544</v>
       </c>
@@ -10415,7 +10416,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40575</v>
       </c>
@@ -10435,7 +10436,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40603</v>
       </c>
@@ -10455,7 +10456,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40634</v>
       </c>
@@ -10475,7 +10476,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>40664</v>
       </c>
@@ -10495,7 +10496,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40695</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40725</v>
       </c>
@@ -10545,7 +10546,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>40756</v>
       </c>
@@ -10569,7 +10570,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>40787</v>
       </c>
@@ -10595,7 +10596,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40817</v>
       </c>
@@ -10615,7 +10616,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>40848</v>
       </c>
@@ -10635,7 +10636,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>40878</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>58</v>
@@ -10683,7 +10684,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>133</v>
@@ -10703,7 +10704,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -10719,7 +10720,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="48" t="s">
         <v>298</v>
       </c>
@@ -10737,7 +10738,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>40909</v>
       </c>
@@ -10757,7 +10758,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40940</v>
       </c>
@@ -10783,7 +10784,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40969</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>58</v>
@@ -10831,7 +10832,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>92</v>
@@ -10851,7 +10852,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41000</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>92</v>
@@ -10897,7 +10898,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41030</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>41061</v>
       </c>
@@ -10943,7 +10944,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>41091</v>
       </c>
@@ -10963,7 +10964,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41122</v>
       </c>
@@ -10983,7 +10984,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41153</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>164</v>
@@ -11031,7 +11032,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>58</v>
@@ -11053,7 +11054,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>192</v>
@@ -11075,7 +11076,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>41183</v>
       </c>
@@ -11099,7 +11100,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>58</v>
@@ -11121,7 +11122,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41214</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>179</v>
@@ -11167,7 +11168,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>41244</v>
       </c>
@@ -11193,7 +11194,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>217</v>
@@ -11213,7 +11214,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="48" t="s">
         <v>321</v>
       </c>
@@ -11231,7 +11232,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41275</v>
       </c>
@@ -11255,7 +11256,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>322</v>
@@ -11277,7 +11278,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41306</v>
       </c>
@@ -11301,7 +11302,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41334</v>
       </c>
@@ -11327,7 +11328,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>329</v>
@@ -11347,7 +11348,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>192</v>
@@ -11369,7 +11370,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>92</v>
@@ -11389,7 +11390,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>330</v>
@@ -11409,7 +11410,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41365</v>
       </c>
@@ -11429,7 +11430,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>41395</v>
       </c>
@@ -11453,7 +11454,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>41426</v>
       </c>
@@ -11477,7 +11478,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41456</v>
       </c>
@@ -11501,7 +11502,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41487</v>
       </c>
@@ -11527,7 +11528,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>332</v>
@@ -11547,7 +11548,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41518</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>333</v>
@@ -11593,7 +11594,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>41548</v>
       </c>
@@ -11617,7 +11618,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41579</v>
       </c>
@@ -11641,7 +11642,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41609</v>
       </c>
@@ -11665,7 +11666,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
         <v>337</v>
       </c>
@@ -11683,7 +11684,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41640</v>
       </c>
@@ -11709,7 +11710,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>158</v>
@@ -11729,7 +11730,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>58</v>
@@ -11751,7 +11752,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>345</v>
@@ -11771,7 +11772,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>41671</v>
       </c>
@@ -11795,7 +11796,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41699</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>41730</v>
       </c>
@@ -11847,7 +11848,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>58</v>
@@ -11869,7 +11870,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>92</v>
@@ -11889,7 +11890,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>345</v>
@@ -11909,7 +11910,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41760</v>
       </c>
@@ -11933,7 +11934,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41791</v>
       </c>
@@ -11953,7 +11954,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>41821</v>
       </c>
@@ -11973,7 +11974,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>41852</v>
       </c>
@@ -11993,7 +11994,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41883</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>41913</v>
       </c>
@@ -12043,7 +12044,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41944</v>
       </c>
@@ -12067,7 +12068,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>41974</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>359</v>
@@ -12113,7 +12114,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>338</v>
       </c>
@@ -12133,7 +12134,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>42005</v>
       </c>
@@ -12157,7 +12158,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>42036</v>
       </c>
@@ -12181,7 +12182,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>42064</v>
       </c>
@@ -12205,7 +12206,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>42095</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>92</v>
@@ -12251,7 +12252,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>192</v>
@@ -12271,7 +12272,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>362</v>
@@ -12291,7 +12292,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>42125</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>42190</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>92</v>
@@ -12337,7 +12338,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>363</v>
@@ -12359,7 +12360,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>368</v>
@@ -12379,7 +12380,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>42156</v>
       </c>
@@ -12403,7 +12404,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>42186</v>
       </c>
@@ -12427,7 +12428,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42217</v>
       </c>
@@ -12451,7 +12452,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>42248</v>
       </c>
@@ -12477,7 +12478,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>97</v>
@@ -12497,7 +12498,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42278</v>
       </c>
@@ -12523,7 +12524,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>373</v>
@@ -12543,7 +12544,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42309</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>374</v>
@@ -12589,7 +12590,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>42339</v>
       </c>
@@ -12615,7 +12616,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>50</v>
@@ -12635,7 +12636,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>377</v>
@@ -12655,7 +12656,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="48" t="s">
         <v>339</v>
       </c>
@@ -12673,7 +12674,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>42370</v>
       </c>
@@ -12697,7 +12698,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42401</v>
       </c>
@@ -12721,7 +12722,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>42430</v>
       </c>
@@ -12745,7 +12746,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>382</v>
@@ -12765,7 +12766,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42461</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>92</v>
@@ -12809,7 +12810,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>192</v>
@@ -12828,7 +12829,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>383</v>
@@ -12845,7 +12846,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42491</v>
       </c>
@@ -12871,7 +12872,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>383</v>
@@ -12891,7 +12892,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>42522</v>
       </c>
@@ -12915,7 +12916,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>42552</v>
       </c>
@@ -12941,7 +12942,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>363</v>
@@ -12963,7 +12964,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>389</v>
@@ -12983,7 +12984,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>42583</v>
       </c>
@@ -13007,7 +13008,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>42614</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>51</v>
@@ -13055,7 +13056,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42644</v>
       </c>
@@ -13079,7 +13080,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42675</v>
       </c>
@@ -13103,7 +13104,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>393</v>
@@ -13123,7 +13124,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>42705</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>58</v>
@@ -13171,7 +13172,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>397</v>
@@ -13191,7 +13192,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>340</v>
       </c>
@@ -13209,7 +13210,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>42736</v>
       </c>
@@ -13235,7 +13236,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42767</v>
       </c>
@@ -13255,7 +13256,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>42795</v>
       </c>
@@ -13275,7 +13276,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42826</v>
       </c>
@@ -13301,7 +13302,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>92</v>
@@ -13321,7 +13322,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>42856</v>
       </c>
@@ -13345,7 +13346,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>403</v>
@@ -13367,7 +13368,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>58</v>
@@ -13389,7 +13390,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42887</v>
       </c>
@@ -13409,7 +13410,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>42917</v>
       </c>
@@ -13429,7 +13430,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42948</v>
       </c>
@@ -13449,7 +13450,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42979</v>
       </c>
@@ -13475,7 +13476,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>51</v>
@@ -13497,7 +13498,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>43009</v>
       </c>
@@ -13517,7 +13518,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43040</v>
       </c>
@@ -13537,7 +13538,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43070</v>
       </c>
@@ -13563,7 +13564,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>51</v>
@@ -13585,7 +13586,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>85</v>
@@ -13607,7 +13608,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>217</v>
@@ -13627,7 +13628,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
         <v>341</v>
       </c>
@@ -13645,7 +13646,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43101</v>
       </c>
@@ -13671,7 +13672,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>58</v>
@@ -13693,7 +13694,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>43132</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>51</v>
@@ -13739,7 +13740,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>43160</v>
       </c>
@@ -13765,7 +13766,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>192</v>
@@ -13787,7 +13788,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>92</v>
@@ -13807,7 +13808,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43191</v>
       </c>
@@ -13827,7 +13828,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43221</v>
       </c>
@@ -13851,7 +13852,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>43252</v>
       </c>
@@ -13875,7 +13876,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>43282</v>
       </c>
@@ -13899,7 +13900,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43313</v>
       </c>
@@ -13925,7 +13926,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43344</v>
       </c>
@@ -13951,7 +13952,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>50</v>
@@ -13973,7 +13974,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>424</v>
@@ -13993,7 +13994,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="49"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43374</v>
       </c>
@@ -14017,7 +14018,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43405</v>
       </c>
@@ -14041,7 +14042,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43435</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>58</v>
@@ -14089,7 +14090,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>217</v>
@@ -14109,7 +14110,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>430</v>
@@ -14129,7 +14130,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="48" t="s">
         <v>429</v>
       </c>
@@ -14147,7 +14148,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43466</v>
       </c>
@@ -14167,7 +14168,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43497</v>
       </c>
@@ -14193,7 +14194,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43525</v>
       </c>
@@ -14219,7 +14220,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43556</v>
       </c>
@@ -14239,7 +14240,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43586</v>
       </c>
@@ -14263,7 +14264,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>85</v>
@@ -14285,7 +14286,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43617</v>
       </c>
@@ -14305,7 +14306,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43647</v>
       </c>
@@ -14325,7 +14326,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43678</v>
       </c>
@@ -14345,7 +14346,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43709</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>51</v>
@@ -14393,7 +14394,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>43739</v>
       </c>
@@ -14413,7 +14414,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43770</v>
       </c>
@@ -14433,7 +14434,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43800</v>
       </c>
@@ -14457,7 +14458,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="48" t="s">
         <v>437</v>
       </c>
@@ -14475,7 +14476,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43831</v>
       </c>
@@ -14499,7 +14500,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43862</v>
       </c>
@@ -14519,7 +14520,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43891</v>
       </c>
@@ -14539,7 +14540,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43922</v>
       </c>
@@ -14559,7 +14560,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43952</v>
       </c>
@@ -14579,7 +14580,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43983</v>
       </c>
@@ -14599,7 +14600,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44013</v>
       </c>
@@ -14619,7 +14620,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>44044</v>
       </c>
@@ -14639,7 +14640,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>44075</v>
       </c>
@@ -14659,7 +14660,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>44105</v>
       </c>
@@ -14679,7 +14680,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44136</v>
       </c>
@@ -14699,7 +14700,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44166</v>
       </c>
@@ -14723,7 +14724,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
         <v>441</v>
       </c>
@@ -14741,7 +14742,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44197</v>
       </c>
@@ -14761,7 +14762,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44228</v>
       </c>
@@ -14781,7 +14782,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44256</v>
       </c>
@@ -14801,7 +14802,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>44287</v>
       </c>
@@ -14821,7 +14822,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44317</v>
       </c>
@@ -14845,7 +14846,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>44348</v>
       </c>
@@ -14865,7 +14866,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13">
@@ -14883,7 +14884,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44409</v>
       </c>
@@ -14903,7 +14904,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44440</v>
       </c>
@@ -14923,7 +14924,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44470</v>
       </c>
@@ -14943,7 +14944,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44501</v>
       </c>
@@ -14963,7 +14964,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44531</v>
       </c>
@@ -14989,7 +14990,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>133</v>
@@ -15009,7 +15010,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
         <v>444</v>
       </c>
@@ -15027,7 +15028,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44562</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44593</v>
       </c>
@@ -15073,7 +15074,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44621</v>
       </c>
@@ -15097,7 +15098,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44652</v>
       </c>
@@ -15123,7 +15124,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>92</v>
@@ -15143,7 +15144,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44682</v>
       </c>
@@ -15163,7 +15164,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44713</v>
       </c>
@@ -15183,7 +15184,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44743</v>
       </c>
@@ -15203,7 +15204,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44774</v>
       </c>
@@ -15223,7 +15224,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44805</v>
       </c>
@@ -15249,7 +15250,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>50</v>
@@ -15271,7 +15272,7 @@
         <v>44830</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44835</v>
       </c>
@@ -15297,7 +15298,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44866</v>
       </c>
@@ -15317,7 +15318,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44896</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="48" t="s">
         <v>453</v>
       </c>
@@ -15361,7 +15362,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44927</v>
       </c>
@@ -15381,7 +15382,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44958</v>
       </c>
@@ -15401,7 +15402,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44986</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>109</v>
@@ -15449,20 +15450,22 @@
         <v>456</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>45017</v>
       </c>
       <c r="B506" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C506" s="13"/>
+      <c r="C506" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G506" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
@@ -15471,11 +15474,13 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>45047</v>
       </c>
-      <c r="B507" s="20"/>
+      <c r="B507" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C507" s="13"/>
       <c r="D507" s="39"/>
       <c r="E507" s="9"/>
@@ -15487,13 +15492,15 @@
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20"/>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A508" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B508" s="20"/>
+      <c r="K507" s="20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" s="40"/>
+      <c r="B508" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
@@ -15505,13 +15512,15 @@
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20"/>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A509" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B509" s="20"/>
+      <c r="K508" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" s="40"/>
+      <c r="B509" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
@@ -15520,14 +15529,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H509" s="39"/>
+      <c r="H509" s="39">
+        <v>1</v>
+      </c>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K509" s="49">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15543,9 +15556,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15561,9 +15574,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15579,9 +15592,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15597,9 +15610,9 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15615,9 +15628,9 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15633,9 +15646,9 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15651,9 +15664,9 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15669,9 +15682,9 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15687,9 +15700,9 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15705,9 +15718,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15723,9 +15736,9 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15741,9 +15754,9 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15759,9 +15772,9 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15777,9 +15790,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15795,9 +15808,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15813,9 +15826,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15831,8 +15844,10 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A527" s="40"/>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" s="40">
+        <v>45597</v>
+      </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
@@ -15847,8 +15862,10 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A528" s="40"/>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A528" s="40">
+        <v>45627</v>
+      </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
       <c r="D528" s="39"/>
@@ -15863,7 +15880,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15879,7 +15896,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15895,7 +15912,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15911,21 +15928,53 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A532" s="41"/>
-      <c r="B532" s="15"/>
-      <c r="C532" s="42"/>
-      <c r="D532" s="43"/>
-      <c r="E532" s="52"/>
-      <c r="F532" s="15"/>
-      <c r="G532" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H532" s="43"/>
-      <c r="I532" s="52"/>
-      <c r="J532" s="12"/>
-      <c r="K532" s="15"/>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A532" s="40"/>
+      <c r="B532" s="20"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="39"/>
+      <c r="E532" s="9"/>
+      <c r="F532" s="20"/>
+      <c r="G532" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H532" s="39"/>
+      <c r="I532" s="9"/>
+      <c r="J532" s="11"/>
+      <c r="K532" s="20"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A533" s="40"/>
+      <c r="B533" s="20"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="39"/>
+      <c r="E533" s="9"/>
+      <c r="F533" s="20"/>
+      <c r="G533" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H533" s="39"/>
+      <c r="I533" s="9"/>
+      <c r="J533" s="11"/>
+      <c r="K533" s="20"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A534" s="41"/>
+      <c r="B534" s="15"/>
+      <c r="C534" s="42"/>
+      <c r="D534" s="43"/>
+      <c r="E534" s="52"/>
+      <c r="F534" s="15"/>
+      <c r="G534" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H534" s="43"/>
+      <c r="I534" s="52"/>
+      <c r="J534" s="12"/>
+      <c r="K534" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15943,10 +15992,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15969,7 +16018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15977,21 +16026,21 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16004,7 +16053,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16033,7 +16082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16059,17 +16108,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16090,7 +16139,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16117,7 +16166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16140,7 +16189,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16166,7 +16215,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16192,7 +16241,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16218,7 +16267,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16244,7 +16293,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16270,7 +16319,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16296,7 +16345,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16316,7 +16365,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16336,7 +16385,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16356,7 +16405,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16377,7 +16426,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16398,7 +16447,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16419,7 +16468,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16440,7 +16489,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16461,7 +16510,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16482,7 +16531,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16503,7 +16552,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16524,7 +16573,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16545,7 +16594,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16566,7 +16615,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16587,7 +16636,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16608,7 +16657,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16629,7 +16678,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16650,7 +16699,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16671,7 +16720,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16692,7 +16741,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16713,7 +16762,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16734,7 +16783,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16755,7 +16804,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16776,7 +16825,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16785,7 +16834,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16794,7 +16843,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16803,7 +16852,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16812,7 +16861,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16821,7 +16870,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16830,7 +16879,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16839,7 +16888,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16848,7 +16897,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16857,7 +16906,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16866,7 +16915,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16875,7 +16924,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16884,7 +16933,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16893,7 +16942,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16902,7 +16951,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16911,7 +16960,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16920,7 +16969,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16929,7 +16978,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16938,7 +16987,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16947,7 +16996,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16956,7 +17005,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16965,7 +17014,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16974,7 +17023,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16983,7 +17032,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16992,7 +17041,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17001,7 +17050,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17010,7 +17059,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17019,7 +17068,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17028,7 +17077,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17037,7 +17086,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
+++ b/REGULAR/OJT/BAYLA, EVANGELINE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="460">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1411,6 +1411,9 @@
   </si>
   <si>
     <t>PERSONAL 5/8/2023</t>
+  </si>
+  <si>
+    <t>6/26,30/2023</t>
   </si>
 </sst>
 </file>
@@ -3826,8 +3829,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K534" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K534"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K535" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K535"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4208,12 +4211,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K534"/>
+  <dimension ref="A2:K535"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A495" activePane="bottomLeft"/>
       <selection activeCell="K140" sqref="K140"/>
-      <selection pane="bottomLeft" activeCell="B510" sqref="B510"/>
+      <selection pane="bottomLeft" activeCell="I512" sqref="I512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,7 +4379,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.790999999999997</v>
+        <v>56.040999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4386,7 +4389,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>176.94900000000001</v>
+        <v>176.19900000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15543,13 +15546,15 @@
         <v>45078</v>
       </c>
       <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
@@ -15560,9 +15565,13 @@
       <c r="A511" s="40">
         <v>45108</v>
       </c>
-      <c r="B511" s="20"/>
+      <c r="B511" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C511" s="13"/>
-      <c r="D511" s="39"/>
+      <c r="D511" s="39">
+        <v>1</v>
+      </c>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
       <c r="G511" s="13" t="str">
@@ -15572,13 +15581,15 @@
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B512" s="20"/>
+      <c r="A512" s="40"/>
+      <c r="B512" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
@@ -15587,14 +15598,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H512" s="39"/>
+      <c r="H512" s="39">
+        <v>2</v>
+      </c>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20"/>
+      <c r="K512" s="49" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15612,7 +15627,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15630,7 +15645,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15648,7 +15663,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15666,7 +15681,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15684,7 +15699,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15702,7 +15717,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15720,7 +15735,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15738,7 +15753,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15756,7 +15771,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15774,7 +15789,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15792,7 +15807,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15810,7 +15825,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15828,7 +15843,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15846,7 +15861,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15864,7 +15879,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15881,7 +15896,9 @@
       <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="40"/>
+      <c r="A529" s="40">
+        <v>45627</v>
+      </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
@@ -15961,20 +15978,36 @@
       <c r="K533" s="20"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="41"/>
-      <c r="B534" s="15"/>
-      <c r="C534" s="42"/>
-      <c r="D534" s="43"/>
-      <c r="E534" s="52"/>
-      <c r="F534" s="15"/>
-      <c r="G534" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H534" s="43"/>
-      <c r="I534" s="52"/>
-      <c r="J534" s="12"/>
-      <c r="K534" s="15"/>
+      <c r="A534" s="40"/>
+      <c r="B534" s="20"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="39"/>
+      <c r="E534" s="9"/>
+      <c r="F534" s="20"/>
+      <c r="G534" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H534" s="39"/>
+      <c r="I534" s="9"/>
+      <c r="J534" s="11"/>
+      <c r="K534" s="20"/>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A535" s="41"/>
+      <c r="B535" s="15"/>
+      <c r="C535" s="42"/>
+      <c r="D535" s="43"/>
+      <c r="E535" s="52"/>
+      <c r="F535" s="15"/>
+      <c r="G535" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H535" s="43"/>
+      <c r="I535" s="52"/>
+      <c r="J535" s="12"/>
+      <c r="K535" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
